--- a/ASIG-NDOC.xlsx
+++ b/ASIG-NDOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5895FCB5-7118-4B13-BC89-5F1DA3C09B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{5895FCB5-7118-4B13-BC89-5F1DA3C09B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EEDC237-E950-4F7E-95A7-5F47B8F26AF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DISPAZ" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -116,7363 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>768</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>769</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="145075276"/>
-          <a:ext cx="3724275" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>731</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>731</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="138598275"/>
-          <a:ext cx="3724275" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>710</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>710</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="135150225"/>
-          <a:ext cx="3695700" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>732</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>732</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="138979275"/>
-          <a:ext cx="3695700" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>813</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>813</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="153142951"/>
-          <a:ext cx="3733800" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>835</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>835</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="157333950"/>
-          <a:ext cx="3714750" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>855</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>855</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagen 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="161143950"/>
-          <a:ext cx="3714750" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>883</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>883</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="166477951"/>
-          <a:ext cx="3705225" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>903</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>903</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagen 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="172031026"/>
-          <a:ext cx="3714750" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>925</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>925</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagen 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="176222026"/>
-          <a:ext cx="3724275" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>943</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>944</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Imagen 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="179670075"/>
-          <a:ext cx="3724275" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1003</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1004</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="191109601"/>
-          <a:ext cx="3724275" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1068</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1069</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="203501625"/>
-          <a:ext cx="3705225" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1117</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>1117</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagen 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="212836124"/>
-          <a:ext cx="3714750" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1131</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>1132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Imagen 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="215903175"/>
-          <a:ext cx="3714750" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1141</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1141</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Imagen 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="217808175"/>
-          <a:ext cx="3705225" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1164</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1164</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Imagen 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="221427676"/>
-          <a:ext cx="3724275" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1218</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1218</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagen 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="230190675"/>
-          <a:ext cx="3705225" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1176</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>1178</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagen 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="223170750"/>
-          <a:ext cx="6210300" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1167</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1169</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagen 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="222418275"/>
-          <a:ext cx="6219825" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1144</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Imagen 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="218217750"/>
-          <a:ext cx="6219825" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1240</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>1240</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Imagen 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="236305725"/>
-          <a:ext cx="3714750" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1361</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1361</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagen 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="258403725"/>
-          <a:ext cx="3724275" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1340</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1340</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagen 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="254603250"/>
-          <a:ext cx="3724275" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1328</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1328</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Imagen 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="252498225"/>
-          <a:ext cx="3705225" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1305</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>1306</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Imagen 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="248154825"/>
-          <a:ext cx="3714750" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1276</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>1276</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagen 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="242839875"/>
-          <a:ext cx="3714750" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1384</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1385</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Imagen 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="263623425"/>
-          <a:ext cx="3705225" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1423</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>1424</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Imagen 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="271052925"/>
-          <a:ext cx="3714750" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1463</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1464</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Imagen 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="279072975"/>
-          <a:ext cx="3705225" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1486</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>1487</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Imagen 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="283273500"/>
-          <a:ext cx="3705225" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>931</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>932</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Rectángulo 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A93226-6989-497F-B414-9976DAA24FD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13249275" y="177755550"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>328</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>328</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="62798325"/>
-          <a:ext cx="4286250" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectángulo 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C336D825-6CA7-4914-B765-94FE71A95D91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10039350" y="63550800"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A4FB8F-3BB1-4788-A8DB-DCA4E9DD1714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="4762500"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6688A4BE-25D4-4B77-9211-EB2652C56295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10668000" y="4381500"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>351</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectángulo 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECF8890-5D8D-4496-B356-B405F49EC46A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3267075" y="67160775"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="61626750"/>
-          <a:ext cx="3914775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>334</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectángulo 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111A956C-948E-498E-8594-9BF8822787EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="63731775"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>515</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>516</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="98402774"/>
-          <a:ext cx="4295775" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>536</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>537</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="102403275"/>
-          <a:ext cx="4295775" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>562</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>563</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="107365800"/>
-          <a:ext cx="4314825" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>591</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>592</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="111185325"/>
-          <a:ext cx="4295775" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>603</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>604</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="113480850"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>622</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="117119400"/>
-          <a:ext cx="4305300" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>635</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>636</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagen 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="119595900"/>
-          <a:ext cx="4295775" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>656</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>657</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="125339475"/>
-          <a:ext cx="4286250" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>670</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>670</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagen 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="127996950"/>
-          <a:ext cx="4305300" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>689</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>690</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagen 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="131645026"/>
-          <a:ext cx="4295775" cy="180974"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>713</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2457451</xdr:colOff>
-      <xdr:row>714</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Imagen 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="136217025"/>
-          <a:ext cx="4267200" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>740</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>741</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="141370050"/>
-          <a:ext cx="4286250" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>761</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>761</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="145380075"/>
-          <a:ext cx="4305300" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>774</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>774</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Imagen 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="147847050"/>
-          <a:ext cx="4305300" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>793</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>793</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagen 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="151504651"/>
-          <a:ext cx="4314825" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>820</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>821</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Imagen 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="156657676"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>833</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>833</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Imagen 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="159143700"/>
-          <a:ext cx="4286250" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>852</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>852</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagen 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="162572700"/>
-          <a:ext cx="4305300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>866</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>866</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagen 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="165049201"/>
-          <a:ext cx="4305300" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>882</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>882</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Imagen 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="168125775"/>
-          <a:ext cx="4305300" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>902</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>902</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagen 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="171926250"/>
-          <a:ext cx="4305300" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>917</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>917</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Imagen 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="174793276"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>939</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>940</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagen 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="179765324"/>
-          <a:ext cx="4305300" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>954</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>954</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagen 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="182241825"/>
-          <a:ext cx="4305300" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>971</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>972</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rectángulo 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21574EA2-0278-444F-A841-3ADC1777CD0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="185489850"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectángulo 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810CC842-FAAD-4D5A-8A10-F6C737ACC876}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5991225" y="63541275"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>804</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>805</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="153390600"/>
-          <a:ext cx="4286250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>876</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>876</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="166916100"/>
-          <a:ext cx="4314825" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>877</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>878</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="167125650"/>
-          <a:ext cx="4333875" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>805</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>805</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="153581100"/>
-          <a:ext cx="4276725" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>889</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>889</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="169630726"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>957</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>957</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="182394225"/>
-          <a:ext cx="4305300" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>971</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>971</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagen 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="184861201"/>
-          <a:ext cx="4295775" cy="142874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>995</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>995</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="189833251"/>
-          <a:ext cx="4276725" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>890</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>890</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagen 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="169830750"/>
-          <a:ext cx="4295775" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>958</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>959</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagen 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="182784751"/>
-          <a:ext cx="4314825" cy="180974"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>972</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>972</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Imagen 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="185442225"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>996</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>996</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190014225"/>
-          <a:ext cx="4305300" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1036</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1036</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="197653275"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1115</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>1115</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Imagen 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="212493225"/>
-          <a:ext cx="4286250" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1037</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1037</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagen 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="197919975"/>
-          <a:ext cx="4305300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1125</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1125</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Imagen 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="214674451"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1183</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>1183</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Imagen 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="225723450"/>
-          <a:ext cx="4286250" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1184</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>1184</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagen 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="225942525"/>
-          <a:ext cx="4286250" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1198</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1198</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagen 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="228619050"/>
-          <a:ext cx="4305300" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1282</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1282</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Imagen 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="244621050"/>
-          <a:ext cx="4305300" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1281</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1282</xdr:row>
-      <xdr:rowOff>11221</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagen 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="244430549"/>
-          <a:ext cx="4314825" cy="192197"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1197</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1197</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Imagen 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="228428551"/>
-          <a:ext cx="4305300" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1368</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1368</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagen 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="261023101"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1293</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1293</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagen 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="246735600"/>
-          <a:ext cx="4305300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1369</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1369</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Imagen 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="261251700"/>
-          <a:ext cx="4295775" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1484</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1484</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Imagen 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="282425775"/>
-          <a:ext cx="4305300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1458</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1458</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagen 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="277672801"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1444</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1444</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Imagen 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="275186774"/>
-          <a:ext cx="4305300" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1384</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1384</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Imagen 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="264137775"/>
-          <a:ext cx="4314825" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1459</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1459</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Imagen 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="278063325"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1445</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1445</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Imagen 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="275596350"/>
-          <a:ext cx="4314825" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1385</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1385</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Imagen 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="264347325"/>
-          <a:ext cx="4314825" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1528</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>1528</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Imagen 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="289874325"/>
-          <a:ext cx="4286250" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1602</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1602</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Imagen 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="303780826"/>
-          <a:ext cx="4295775" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1529</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2457451</xdr:colOff>
-      <xdr:row>1529</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Imagen 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="290283900"/>
-          <a:ext cx="4267200" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1617</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1617</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Imagen 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="306352575"/>
-          <a:ext cx="4305300" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1715</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>1715</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Imagen 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="324450076"/>
-          <a:ext cx="4286250" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1716</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1716</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Imagen 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="324650100"/>
-          <a:ext cx="4295775" cy="180974"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1618</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1618</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Imagen 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="306752625"/>
-          <a:ext cx="4324350" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1603</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1603</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Imagen 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="304266600"/>
-          <a:ext cx="4295775" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1741</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1741</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Imagen 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="332365350"/>
-          <a:ext cx="4305300" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1877</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>1877</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Imagen 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="358073325"/>
-          <a:ext cx="4286250" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1742</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1742</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Imagen 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="332555850"/>
-          <a:ext cx="4324350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1878</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>1878</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Imagen 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="358463850"/>
-          <a:ext cx="4276725" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1890</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1891</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Imagen 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="360778425"/>
-          <a:ext cx="4295775" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1965</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1965</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Imagen 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="374884950"/>
-          <a:ext cx="4295775" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1980</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1980</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Imagen 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="377542425"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2048</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2048</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Imagen 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="390296400"/>
-          <a:ext cx="4314825" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1966</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1966</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Imagen 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="375265950"/>
-          <a:ext cx="4295775" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1981</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>1981</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Imagen 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="378132975"/>
-          <a:ext cx="4295775" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2049</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>2049</xdr:row>
-      <xdr:rowOff>183963</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Imagen 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="391086975"/>
-          <a:ext cx="4295775" cy="164913"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1891</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>1891</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Imagen 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="361007024"/>
-          <a:ext cx="4286250" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2094</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2094</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Imagen 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="399678526"/>
-          <a:ext cx="4305300" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2198</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2199</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Imagen 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="419528625"/>
-          <a:ext cx="4305300" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2199</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2199</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Imagen 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="419728650"/>
-          <a:ext cx="4314825" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2095</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2095</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Imagen 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="399888075"/>
-          <a:ext cx="4314825" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2426</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>2426</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Imagen 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="463000725"/>
-          <a:ext cx="4276725" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2212</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>2213</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Imagen 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="422233725"/>
-          <a:ext cx="4295775" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2427</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2427</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Imagen 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="463210276"/>
-          <a:ext cx="4305300" cy="161924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2465</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2465</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Imagen 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="470468325"/>
-          <a:ext cx="4305300" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2466</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>2466</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Imagen 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="470639775"/>
-          <a:ext cx="4295775" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2478</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2478</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Imagen 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="472935300"/>
-          <a:ext cx="4305300" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2538</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>2539</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Imagen 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="484412925"/>
-          <a:ext cx="4286250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2479</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>2479</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Imagen 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="473144850"/>
-          <a:ext cx="4295775" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2555</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>2555</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Imagen 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="487689526"/>
-          <a:ext cx="4286250" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2618</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>2619</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Imagen 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="499081425"/>
-          <a:ext cx="4295775" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2630</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2630</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Imagen 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="501176925"/>
-          <a:ext cx="4305300" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2657</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>2657</xdr:row>
-      <xdr:rowOff>191224</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Imagen 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="506139450"/>
-          <a:ext cx="4276725" cy="162649"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2539</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476499</xdr:colOff>
-      <xdr:row>2539</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Imagen 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="484612950"/>
-          <a:ext cx="4286249" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2619</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2619</xdr:row>
-      <xdr:rowOff>181777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Imagen 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="499490999"/>
-          <a:ext cx="4314825" cy="153203"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2631</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2631</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Imagen 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="501767474"/>
-          <a:ext cx="4324350" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2658</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2658</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Imagen 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000067000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="506910975"/>
-          <a:ext cx="4305300" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2675</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2675</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Imagen 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="510540001"/>
-          <a:ext cx="4305300" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2746</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2746</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Imagen 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="524132175"/>
-          <a:ext cx="4305300" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2539</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4286250" cy="180975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Imagen 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="487699050"/>
-          <a:ext cx="4286250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2759</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>2760</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Rectángulo 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B63231-B26B-4D66-B834-1C70C13EFBDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="526589625"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>326</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>327</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectángulo 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EB6891-57C1-4A87-A51D-B0A21AEA4404}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="62407800"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>430</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>430</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82257900"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>441</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>441</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="84353399"/>
-          <a:ext cx="4295775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>458</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>458</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="87401400"/>
-          <a:ext cx="4267200" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>469</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>469</xdr:row>
-      <xdr:rowOff>182777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="89325450"/>
-          <a:ext cx="4324350" cy="163727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>483</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>484</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="91992451"/>
-          <a:ext cx="4286249" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>492</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
-      <xdr:row>493</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="94106999"/>
-          <a:ext cx="4295775" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>495</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>496</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectángulo 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A9158A-557C-40D3-B93E-B5740AD37B95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7524750" y="94678500"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!borrarContenido" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectángulo 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F1586A-052A-4113-9359-21A53CFB0D49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915275" y="4400550"/>
-          <a:ext cx="1266825" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ELIMINAR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
-            <a:t> TODO</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7777,8 +424,8 @@
   </sheetPr>
   <dimension ref="A14:A1463"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J298" sqref="J298"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7857,7 +504,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7869,7 +515,7 @@
   <dimension ref="A8:A289"/>
   <sheetViews>
     <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J284" sqref="J284"/>
+      <selection activeCell="G297" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8434,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A16:A483"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="I305" sqref="I305"/>
+    <sheetView topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="I457" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8998,7 +1644,6 @@
     <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9009,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A9:A326"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J294" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J57" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9566,7 +2211,6 @@
     <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9578,7 +2222,7 @@
   <dimension ref="A8:A1195"/>
   <sheetViews>
     <sheetView topLeftCell="A1223" workbookViewId="0">
-      <selection activeCell="J1240" sqref="J1240"/>
+      <selection activeCell="J1251" sqref="J1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10164,8 +2808,8 @@
   </sheetPr>
   <dimension ref="A8:A433"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="C458" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10744,7 +3388,7 @@
   <dimension ref="A7:A303"/>
   <sheetViews>
     <sheetView topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="J314" sqref="J314"/>
+      <selection activeCell="C331" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11312,8 +3956,8 @@
   </sheetPr>
   <dimension ref="A15:A460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="H494" sqref="H494"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="E504" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11874,7 +4518,7 @@
   <dimension ref="A7:A283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="D34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12437,8 +5081,8 @@
   </sheetPr>
   <dimension ref="A7:A293"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D304" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="E316" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13003,8 +5647,8 @@
   </sheetPr>
   <dimension ref="A8:A378"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J399" sqref="J399"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="E413" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13564,8 +6208,8 @@
   </sheetPr>
   <dimension ref="A9:A320"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A313" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13614,7 +6258,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13626,7 +6269,7 @@
   <dimension ref="A7:A280"/>
   <sheetViews>
     <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="G300" sqref="A1:XFD1048576"/>
+      <selection activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14191,7 +6834,7 @@
   <dimension ref="A13:A389"/>
   <sheetViews>
     <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="D389" sqref="A1:XFD1048576"/>
+      <selection activeCell="I410" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14749,7 +7392,7 @@
   <dimension ref="A7:A303"/>
   <sheetViews>
     <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B317" sqref="A1:XFD1048576"/>
+      <selection activeCell="I319" sqref="I319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15314,7 +7957,7 @@
   <dimension ref="A10:A359"/>
   <sheetViews>
     <sheetView topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="D367" sqref="D367"/>
+      <selection activeCell="I387" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16009,7 +8652,7 @@
   <dimension ref="A7:A279"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="J301" sqref="J301"/>
+      <selection activeCell="I303" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16575,8 +9218,8 @@
   </sheetPr>
   <dimension ref="A8:A319"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="J304" sqref="J304"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="I326" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17131,7 +9774,6 @@
     <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17143,7 +9785,7 @@
   <dimension ref="A8:A297"/>
   <sheetViews>
     <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J294" sqref="A1:XFD1048576"/>
+      <selection activeCell="J304" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17700,14 +10342,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="J294" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N53" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17719,13 +10360,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="J294" sqref="A1:XFD1048576"/>
+      <selection activeCell="M301" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17737,7 +10377,7 @@
   <dimension ref="A7:A447"/>
   <sheetViews>
     <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+      <selection activeCell="D303" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17830,7 +10470,7 @@
   <dimension ref="A8:A312"/>
   <sheetViews>
     <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J294" sqref="A1:XFD1048576"/>
+      <selection activeCell="D312" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17880,7 +10520,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17891,8 +10530,8 @@
   </sheetPr>
   <dimension ref="A19:A939"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+    <sheetView topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E310" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18469,7 +11108,6 @@
     <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19035,7 +11673,6 @@
     <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19675,7 +12312,6 @@
     <row r="2675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19686,8 +12322,8 @@
   </sheetPr>
   <dimension ref="A8:A301"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="G313" sqref="G313"/>
+    <sheetView topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="G313" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20242,7 +12878,6 @@
     <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20254,7 +12889,7 @@
   <dimension ref="A8:A285"/>
   <sheetViews>
     <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J294" sqref="A1:XFD1048576"/>
+      <selection activeCell="I305" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
